--- a/utils/img.xlsx
+++ b/utils/img.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C246A43-F1C6-451D-9E65-4A144269B2B6}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKEWL\Master\RESEARCH\Project\NAISS\utils\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF6C70C-4975-497F-A1B4-FF244FFED9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,272 +38,272 @@
     <t>americanexpress.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/LnWJKOj</t>
-  </si>
-  <si>
     <t>americanexpress.png</t>
   </si>
   <si>
-    <t>https://imgur.com/UCgS1bB</t>
-  </si>
-  <si>
     <t>bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/8I4G5E5</t>
-  </si>
-  <si>
     <t>bitcoin.png</t>
   </si>
   <si>
-    <t>https://imgur.com/zRYHyAO</t>
-  </si>
-  <si>
     <t>googlepay.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/SBymQee</t>
-  </si>
-  <si>
-    <t>googleplay.png</t>
-  </si>
-  <si>
-    <t>https://imgur.com/fJg5zJB</t>
-  </si>
-  <si>
     <t>ideal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/JCIpmCE</t>
-  </si>
-  <si>
     <t>ideal.png</t>
   </si>
   <si>
-    <t>https://imgur.com/3uA3FNF</t>
-  </si>
-  <si>
     <t>logo.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/couUKgG</t>
-  </si>
-  <si>
     <t>logo.png</t>
   </si>
   <si>
-    <t>https://imgur.com/FwTOWeU</t>
-  </si>
-  <si>
     <t>maestro.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/zDoiMm1</t>
-  </si>
-  <si>
     <t>maestro.png</t>
   </si>
   <si>
-    <t>https://imgur.com/c0LHvKP</t>
-  </si>
-  <si>
     <t>mastercard.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/4AAnovD</t>
-  </si>
-  <si>
     <t>mastercard.png</t>
   </si>
   <si>
-    <t>https://imgur.com/u1LfZ4C</t>
-  </si>
-  <si>
     <t>paypal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/3VniQ2c</t>
-  </si>
-  <si>
     <t>paypal.png</t>
   </si>
   <si>
-    <t>https://imgur.com/HnuR42w</t>
-  </si>
-  <si>
     <t>payu.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/uimEQOk</t>
-  </si>
-  <si>
     <t>payu.png</t>
   </si>
   <si>
-    <t>https://imgur.com/E0hlDRL</t>
-  </si>
-  <si>
     <t>visa.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/NiahwJ4</t>
-  </si>
-  <si>
     <t>visa.png</t>
   </si>
   <si>
-    <t>https://imgur.com/03x8XW3</t>
-  </si>
-  <si>
     <t>westernunion.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/i4ej7YJ</t>
-  </si>
-  <si>
     <t>westernunion.png</t>
   </si>
   <si>
-    <t>https://imgur.com/nALk1hk</t>
-  </si>
-  <si>
     <t>stego_americanexpress.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/zuBfwy9</t>
-  </si>
-  <si>
     <t>stego_americanexpress.png</t>
   </si>
   <si>
-    <t>https://imgur.com/kQqtrHo</t>
-  </si>
-  <si>
     <t>stego_bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/EhzzWZH</t>
-  </si>
-  <si>
     <t>stego_bitcoin.png</t>
   </si>
   <si>
-    <t>https://imgur.com/1cgNqQP</t>
-  </si>
-  <si>
     <t>stego_googlepay.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/sEwZSp8</t>
-  </si>
-  <si>
-    <t>stego_googleplay.png</t>
-  </si>
-  <si>
-    <t>https://imgur.com/VEBsrEW</t>
-  </si>
-  <si>
     <t>stego_ideal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/2tCKnS9</t>
-  </si>
-  <si>
     <t>stego_ideal.png</t>
   </si>
   <si>
-    <t>https://imgur.com/ODSo3dK</t>
-  </si>
-  <si>
     <t>stego_logo.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/LoFxbO1</t>
-  </si>
-  <si>
     <t>stego_logo.png</t>
   </si>
   <si>
-    <t>https://imgur.com/tLjpcNe</t>
-  </si>
-  <si>
     <t>stego_maestro.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/E2IliNy</t>
-  </si>
-  <si>
     <t>stego_maestro.png</t>
   </si>
   <si>
-    <t>https://imgur.com/fdYSEup</t>
-  </si>
-  <si>
     <t>stego_mastercard.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/O7s76GM</t>
-  </si>
-  <si>
     <t>stego_mastercard.png</t>
   </si>
   <si>
-    <t>https://imgur.com/Skowu8W</t>
-  </si>
-  <si>
     <t>stego_paypal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/70gQUCw</t>
-  </si>
-  <si>
     <t>stego_paypal.png</t>
   </si>
   <si>
-    <t>https://imgur.com/ZoT1Lzj</t>
-  </si>
-  <si>
     <t>stego_payu.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/Yl4saqQ</t>
-  </si>
-  <si>
     <t>stego_payu.png</t>
   </si>
   <si>
-    <t>https://imgur.com/Su4VLRC</t>
-  </si>
-  <si>
     <t>stego_visa.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/5DgReJt</t>
-  </si>
-  <si>
     <t>stego_visa.png</t>
   </si>
   <si>
-    <t>https://imgur.com/G1YQNWb</t>
-  </si>
-  <si>
     <t>stego_westernunion.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/4EdCxAH</t>
-  </si>
-  <si>
     <t>stego_westernunion.png</t>
   </si>
   <si>
-    <t>https://imgur.com/IVKtVvu</t>
+    <t>googlepay.png</t>
+  </si>
+  <si>
+    <t>stego_googlepay.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/LnWJKOj.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/8I4G5E5.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/SBymQee.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/JCIpmCE.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/couUKgG.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/zDoiMm1.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/4AAnovD.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/3VniQ2c.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/uimEQOk.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/NiahwJ4.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/i4ej7YJ.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/zuBfwy9.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/EhzzWZH.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/sEwZSp8.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/2tCKnS9.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/LoFxbO1.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/E2IliNy.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/O7s76GM.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/70gQUCw.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/Yl4saqQ.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/5DgReJt.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/4EdCxAH.jpg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/UCgS1bB.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/zRYHyAO.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/fJg5zJB.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/3uA3FNF.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/FwTOWeU.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/c0LHvKP.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/u1LfZ4C.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/HnuR42w.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/E0hlDRL.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/03x8XW3.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/nALk1hk.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/kQqtrHo.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/1cgNqQP.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/VEBsrEW.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/ODSo3dK.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/tLjpcNe.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/fdYSEup.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/Skowu8W.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/ZoT1Lzj.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/Su4VLRC.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/G1YQNWb.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/IVKtVvu.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,7 +363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -646,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -654,376 +659,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A2:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{180C230A-2568-4A6E-BBED-558541BD1057}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{180C230A-2568-4A6E-BBED-558541BD1057}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{8B463F2F-380C-4CDA-ADFE-C566388C975A}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{3B765776-E2DA-4D79-B432-885A68F5BE1F}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{C64D390D-FC23-46FB-A3F5-45E6A4CB00C4}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{28C64D70-F195-4861-BBDC-C48E79853382}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{6501361F-D424-4DB2-9DC2-2F4A4F2DEDA9}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{022355C8-1234-41E9-A9D5-70744202734B}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{6AD8BEE5-7851-477B-9B7F-9A91D1409C33}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{0B1A4BFF-8030-4651-B1D7-1F43FA153DF0}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{25835919-DFBC-427F-AF9D-5CAC33C6B414}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{AA912F93-3501-4AC5-A138-9DE314E385D2}"/>
+    <hyperlink ref="B22" r:id="rId12" xr:uid="{FBB01AD9-482D-4286-8335-1E886015DD24}"/>
+    <hyperlink ref="B28" r:id="rId13" xr:uid="{FDE7FF64-D73F-4E75-BD33-D44CE46C6ED7}"/>
+    <hyperlink ref="B30" r:id="rId14" xr:uid="{70018C45-5BCB-4287-893B-63B69A66D5DE}"/>
+    <hyperlink ref="B32" r:id="rId15" xr:uid="{5C326EA9-F6F9-4F32-86BD-F3DA73C4B53E}"/>
+    <hyperlink ref="B34" r:id="rId16" xr:uid="{3B46485F-DB12-4BA5-B6CA-1DA1FA6143FF}"/>
+    <hyperlink ref="B36" r:id="rId17" xr:uid="{436CE9C3-D5A5-4230-9D46-D4072AA54ECD}"/>
+    <hyperlink ref="B38" r:id="rId18" xr:uid="{D5147400-ECB7-4609-8699-6BAB5D5AAF10}"/>
+    <hyperlink ref="B40" r:id="rId19" xr:uid="{563BB063-B17D-4589-8AF3-CBDAA0EC0246}"/>
+    <hyperlink ref="B42" r:id="rId20" xr:uid="{C190AC23-9887-437D-B5C8-5396EEBF12F6}"/>
+    <hyperlink ref="B44" r:id="rId21" xr:uid="{6CAA56BA-5A48-4E45-8A07-B6A67125C051}"/>
+    <hyperlink ref="B46" r:id="rId22" xr:uid="{631BE31D-E6FD-4826-BB2F-83AE2FF51193}"/>
+    <hyperlink ref="B3" r:id="rId23" xr:uid="{492E9DBA-BB54-499F-B7D3-464D9F83C08B}"/>
+    <hyperlink ref="B5" r:id="rId24" xr:uid="{E553753E-28AC-4E26-930A-5B524FCD2EB2}"/>
+    <hyperlink ref="B7" r:id="rId25" xr:uid="{55CC121D-A792-4D20-BF77-72676EB570FF}"/>
+    <hyperlink ref="B9" r:id="rId26" xr:uid="{5317AB0F-A0A1-442E-B5FC-A7DA334A7D32}"/>
+    <hyperlink ref="B11" r:id="rId27" xr:uid="{76220F25-E418-41C2-812D-34D0E62463D8}"/>
+    <hyperlink ref="B13" r:id="rId28" xr:uid="{9F55A8AF-94BF-4EDD-93BD-6DB0A52F0477}"/>
+    <hyperlink ref="B15" r:id="rId29" xr:uid="{940B6614-8637-4A72-B908-3A2AC5C6D7FF}"/>
+    <hyperlink ref="B17" r:id="rId30" xr:uid="{B111C47E-471D-4F8A-8499-1956483EE7DD}"/>
+    <hyperlink ref="B19" r:id="rId31" xr:uid="{9EDA58BF-58A6-4354-9D35-3F2BC6C20471}"/>
+    <hyperlink ref="B21" r:id="rId32" xr:uid="{535C5538-A411-4C8E-932E-48DDB0516B50}"/>
+    <hyperlink ref="B23" r:id="rId33" xr:uid="{40013E58-D2F4-4E57-BCC6-09922E920E56}"/>
+    <hyperlink ref="B27" r:id="rId34" xr:uid="{B2577B44-4B98-4AF7-838F-B16B2AB09F65}"/>
+    <hyperlink ref="B29" r:id="rId35" xr:uid="{1073359F-3692-4967-AA81-D95AC622C8A9}"/>
+    <hyperlink ref="B31" r:id="rId36" xr:uid="{5CC9DEC0-9735-46C3-9855-B8C24595CE82}"/>
+    <hyperlink ref="B33" r:id="rId37" xr:uid="{0EAF110C-E5F9-4573-8211-2305B914F61C}"/>
+    <hyperlink ref="B35" r:id="rId38" xr:uid="{506515BF-9E4F-46F1-8ED5-2B0A85C5AB40}"/>
+    <hyperlink ref="B37" r:id="rId39" xr:uid="{6AE4E82F-960C-4E37-A206-0AB578D4F92C}"/>
+    <hyperlink ref="B39" r:id="rId40" xr:uid="{19DBB997-4BB9-4EF9-9210-1AD15CE4E949}"/>
+    <hyperlink ref="B41" r:id="rId41" xr:uid="{062C74F0-3971-43DB-B14B-34C9A73B251B}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{A9C75FA4-3D19-47E4-88AA-015B92E00BFD}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{30287874-24DB-424C-B1A8-461167E6F732}"/>
+    <hyperlink ref="B47" r:id="rId44" xr:uid="{8012D73E-EA73-47D0-BA82-164F8EE7B7C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utils/img.xlsx
+++ b/utils/img.xlsx
@@ -19,265 +19,265 @@
     <t>americanexpress.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/mTssL2q.jpg</t>
+    <t>https://i.imgur.com/nSrBF1k.jpg</t>
   </si>
   <si>
     <t>americanexpress.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/MmHR8EA.png</t>
+    <t>https://i.imgur.com/gdWhGbu.png</t>
   </si>
   <si>
     <t>bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/ZxFoMvh.jpg</t>
+    <t>https://i.imgur.com/anJc11p.jpg</t>
   </si>
   <si>
     <t>bitcoin.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/bLTVOxb.png</t>
+    <t>https://i.imgur.com/3ZgG674.png</t>
   </si>
   <si>
     <t>googlepay.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/OBNKAsk.jpg</t>
+    <t>https://i.imgur.com/r5HtByu.jpg</t>
   </si>
   <si>
     <t>googlepay.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/7ctWn6g.png</t>
+    <t>https://i.imgur.com/BrsryA7.png</t>
   </si>
   <si>
     <t>ideal.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/0KaItMz.jpg</t>
+    <t>https://i.imgur.com/JVubcSG.jpg</t>
   </si>
   <si>
     <t>ideal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/XW9IHji.png</t>
+    <t>https://i.imgur.com/t8tf1K6.png</t>
   </si>
   <si>
     <t>logo.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/iRWPeXR.jpg</t>
+    <t>https://i.imgur.com/xGeKfa0.jpg</t>
   </si>
   <si>
     <t>logo.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/jTO2BEx.png</t>
+    <t>https://i.imgur.com/hXSas5X.png</t>
   </si>
   <si>
     <t>maestro.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/mU4LKK5.jpg</t>
+    <t>https://i.imgur.com/6poTRTS.jpg</t>
   </si>
   <si>
     <t>maestro.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/VhdOZrZ.png</t>
+    <t>https://i.imgur.com/0n8NAtk.png</t>
   </si>
   <si>
     <t>mastercard.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/NHAZUYe.jpg</t>
+    <t>https://i.imgur.com/I2GyDkr.jpg</t>
   </si>
   <si>
     <t>mastercard.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/ItFaM3V.png</t>
+    <t>https://i.imgur.com/rIrpzTR.png</t>
   </si>
   <si>
     <t>paypal.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/iV1YYV3.jpg</t>
+    <t>https://i.imgur.com/lIrKAXT.jpg</t>
   </si>
   <si>
     <t>paypal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/yab4FVG.png</t>
+    <t>https://i.imgur.com/2eQQT5J.png</t>
   </si>
   <si>
     <t>payu.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/Jif8LQk.jpg</t>
+    <t>https://i.imgur.com/Kgj6Qfr.jpg</t>
   </si>
   <si>
     <t>payu.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/XA9Rz0u.png</t>
+    <t>https://i.imgur.com/X7Ll2DN.png</t>
   </si>
   <si>
     <t>visa.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/vdhWS1v.jpg</t>
+    <t>https://i.imgur.com/Iiss6fm.jpg</t>
   </si>
   <si>
     <t>visa.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/4pg9inB.png</t>
+    <t>https://i.imgur.com/hVlO2is.png</t>
   </si>
   <si>
     <t>westernunion.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/E1rCu3R.jpg</t>
+    <t>https://i.imgur.com/4BNJtDW.jpg</t>
   </si>
   <si>
     <t>westernunion.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/truy3rc.png</t>
+    <t>https://i.imgur.com/7umMgya.png</t>
   </si>
   <si>
     <t>stego_americanexpress.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/Cn4L5mm.jpg</t>
+    <t>https://i.imgur.com/ug875Zj.jpg</t>
   </si>
   <si>
     <t>stego_americanexpress.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/QiZPljD.png</t>
+    <t>https://i.imgur.com/4lSm3a9.png</t>
   </si>
   <si>
     <t>stego_bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/uFRq2AN.jpg</t>
+    <t>https://i.imgur.com/4ua6DKn.jpg</t>
   </si>
   <si>
     <t>stego_bitcoin.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/1snm9Q4.png</t>
+    <t>https://i.imgur.com/PQBKN8B.png</t>
   </si>
   <si>
     <t>stego_googlepay.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/uwJ1uSs.jpg</t>
+    <t>https://i.imgur.com/FI89glu.jpg</t>
   </si>
   <si>
     <t>stego_googlepay.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/16DmqyT.png</t>
+    <t>https://i.imgur.com/96VuErO.png</t>
   </si>
   <si>
     <t>stego_ideal.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/Dol3VbI.jpg</t>
+    <t>https://i.imgur.com/5Vwje3a.jpg</t>
   </si>
   <si>
     <t>stego_ideal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/o9rVNMT.png</t>
+    <t>https://i.imgur.com/JB0MmZ4.png</t>
   </si>
   <si>
     <t>stego_logo.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/cD7z4dL.jpg</t>
+    <t>https://i.imgur.com/hDYbERP.jpg</t>
   </si>
   <si>
     <t>stego_logo.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/bOc4cK8.png</t>
+    <t>https://i.imgur.com/MkNUmdh.png</t>
   </si>
   <si>
     <t>stego_maestro.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/bmV99lH.jpg</t>
+    <t>https://i.imgur.com/S96ZphI.jpg</t>
   </si>
   <si>
     <t>stego_maestro.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/HYzaWGN.png</t>
+    <t>https://i.imgur.com/D5Y4pOq.png</t>
   </si>
   <si>
     <t>stego_mastercard.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/KJh27co.jpg</t>
+    <t>https://i.imgur.com/8PUbeO5.jpg</t>
   </si>
   <si>
     <t>stego_mastercard.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/Rcu6ta0.png</t>
+    <t>https://i.imgur.com/YLusO22.png</t>
   </si>
   <si>
     <t>stego_paypal.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/oVn2FMq.jpg</t>
+    <t>https://i.imgur.com/hCuCyxc.jpg</t>
   </si>
   <si>
     <t>stego_paypal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/TMZHM5K.png</t>
+    <t>https://i.imgur.com/xwI5XPe.png</t>
   </si>
   <si>
     <t>stego_payu.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/QgFq88f.jpg</t>
+    <t>https://i.imgur.com/znKp20Q.jpg</t>
   </si>
   <si>
     <t>stego_payu.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/ANUE9L8.png</t>
+    <t>https://i.imgur.com/sRYJS6d.png</t>
   </si>
   <si>
     <t>stego_visa.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/1yGJIVO.jpg</t>
+    <t>https://i.imgur.com/icyXKmP.jpg</t>
   </si>
   <si>
     <t>stego_visa.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/DWM7qp6.png</t>
+    <t>https://i.imgur.com/dZhvtu5.png</t>
   </si>
   <si>
     <t>stego_westernunion.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/apnM3W6.jpg</t>
+    <t>https://i.imgur.com/Q20aPFo.jpg</t>
   </si>
   <si>
     <t>stego_westernunion.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/OaW1Jqt.png</t>
+    <t>https://i.imgur.com/vnhW31D.png</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="33.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="31.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -903,7 +903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -911,7 +911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -919,7 +919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -927,7 +927,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -935,7 +935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -943,7 +943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -951,7 +951,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -959,7 +959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -967,7 +967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>

--- a/utils/img.xlsx
+++ b/utils/img.xlsx
@@ -19,265 +19,265 @@
     <t>americanexpress.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/VyajFPI.jpg</t>
+    <t>https://i.imgur.com/nSrBF1k.jpg</t>
   </si>
   <si>
     <t>americanexpress.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/ywPyGbr.png</t>
+    <t>https://i.imgur.com/gdWhGbu.png</t>
   </si>
   <si>
     <t>bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/2ass03X.jpg</t>
+    <t>https://i.imgur.com/anJc11p.jpg</t>
   </si>
   <si>
     <t>bitcoin.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/IAYNXMf.png</t>
+    <t>https://i.imgur.com/3ZgG674.png</t>
   </si>
   <si>
     <t>googlepay.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/8LRLqRV.jpg</t>
+    <t>https://i.imgur.com/r5HtByu.jpg</t>
   </si>
   <si>
     <t>googlepay.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/jwgxc7n.png</t>
+    <t>https://i.imgur.com/BrsryA7.png</t>
   </si>
   <si>
     <t>ideal.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/RX8z3h4.jpg</t>
+    <t>https://i.imgur.com/JVubcSG.jpg</t>
   </si>
   <si>
     <t>ideal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/VxdMXDq.png</t>
+    <t>https://i.imgur.com/t8tf1K6.png</t>
   </si>
   <si>
     <t>logo.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/9iXJvXJ.jpg</t>
+    <t>https://i.imgur.com/xGeKfa0.jpg</t>
   </si>
   <si>
     <t>logo.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/rp3MAJJ.png</t>
+    <t>https://i.imgur.com/hXSas5X.png</t>
   </si>
   <si>
     <t>maestro.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/XROOWl0.jpg</t>
+    <t>https://i.imgur.com/6poTRTS.jpg</t>
   </si>
   <si>
     <t>maestro.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/3EHCLmx.png</t>
+    <t>https://i.imgur.com/0n8NAtk.png</t>
   </si>
   <si>
     <t>mastercard.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/BFmmUVU.jpg</t>
+    <t>https://i.imgur.com/I2GyDkr.jpg</t>
   </si>
   <si>
     <t>mastercard.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/TgfOgmD.png</t>
+    <t>https://i.imgur.com/rIrpzTR.png</t>
   </si>
   <si>
     <t>paypal.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/LAaC5On.jpg</t>
+    <t>https://i.imgur.com/lIrKAXT.jpg</t>
   </si>
   <si>
     <t>paypal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/pcvWGW3.png</t>
+    <t>https://i.imgur.com/2eQQT5J.png</t>
   </si>
   <si>
     <t>payu.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/xqnx5ex.jpg</t>
+    <t>https://i.imgur.com/Kgj6Qfr.jpg</t>
   </si>
   <si>
     <t>payu.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/UodIFfv.png</t>
+    <t>https://i.imgur.com/X7Ll2DN.png</t>
   </si>
   <si>
     <t>visa.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/35EjIaF.jpg</t>
+    <t>https://i.imgur.com/Iiss6fm.jpg</t>
   </si>
   <si>
     <t>visa.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/3eHwGjq.png</t>
+    <t>https://i.imgur.com/hVlO2is.png</t>
   </si>
   <si>
     <t>westernunion.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/lR2AXlU.jpg</t>
+    <t>https://i.imgur.com/4BNJtDW.jpg</t>
   </si>
   <si>
     <t>westernunion.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/zQsKScU.png</t>
+    <t>https://i.imgur.com/7umMgya.png</t>
   </si>
   <si>
     <t>stego_americanexpress.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/QturSVm.jpg</t>
+    <t>https://i.imgur.com/DgYwlus.jpg</t>
   </si>
   <si>
     <t>stego_americanexpress.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/LQfun3l.png</t>
+    <t>https://i.imgur.com/Q9ClHMz.png</t>
   </si>
   <si>
     <t>stego_bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/YozVMtk.jpg</t>
+    <t>https://i.imgur.com/gSsgc70.jpg</t>
   </si>
   <si>
     <t>stego_bitcoin.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/5jFixwY.png</t>
+    <t>https://i.imgur.com/ranRU3V.png</t>
   </si>
   <si>
     <t>stego_googlepay.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/sEwZSp8.jpg</t>
+    <t>https://i.imgur.com/MciCY9w.jpg</t>
   </si>
   <si>
     <t>stego_googlepay.png</t>
   </si>
   <si>
-    <t>https://imgur.com/VEBsrEW.png</t>
+    <t>https://i.imgur.com/2RSj8fe.png</t>
   </si>
   <si>
     <t>stego_ideal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/2tCKnS9.jpg</t>
+    <t>https://i.imgur.com/ira9fGZ.jpg</t>
   </si>
   <si>
     <t>stego_ideal.png</t>
   </si>
   <si>
-    <t>https://imgur.com/ODSo3dK.png</t>
+    <t>https://i.imgur.com/1kwi8hM.png</t>
   </si>
   <si>
     <t>stego_logo.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/LoFxbO1.jpg</t>
+    <t>https://i.imgur.com/lW2Ede4.jpg</t>
   </si>
   <si>
     <t>stego_logo.png</t>
   </si>
   <si>
-    <t>https://imgur.com/tLjpcNe.png</t>
+    <t>https://i.imgur.com/KP3yGqf.png</t>
   </si>
   <si>
     <t>stego_maestro.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/E2IliNy.jpg</t>
+    <t>https://i.imgur.com/dFvKz9w.jpg</t>
   </si>
   <si>
     <t>stego_maestro.png</t>
   </si>
   <si>
-    <t>https://imgur.com/fdYSEup.png</t>
+    <t>https://i.imgur.com/8P3AN4C.png</t>
   </si>
   <si>
     <t>stego_mastercard.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/O7s76GM.jpg</t>
+    <t>https://i.imgur.com/bHMX0K6.jpg</t>
   </si>
   <si>
     <t>stego_mastercard.png</t>
   </si>
   <si>
-    <t>https://imgur.com/Skowu8W.png</t>
+    <t>https://i.imgur.com/WnZf4xq.png</t>
   </si>
   <si>
     <t>stego_paypal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/70gQUCw.jpg</t>
+    <t>https://i.imgur.com/f2TQ81Z.jpg</t>
   </si>
   <si>
     <t>stego_paypal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/xwI5XPe.png</t>
+    <t>https://i.imgur.com/Dq39DY2.png</t>
   </si>
   <si>
     <t>stego_payu.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/Yl4saqQ.jpg</t>
+    <t>https://i.imgur.com/RbreoZO.jpg</t>
   </si>
   <si>
     <t>stego_payu.png</t>
   </si>
   <si>
-    <t>https://imgur.com/Su4VLRC.png</t>
+    <t>https://i.imgur.com/L9caEEn.png</t>
   </si>
   <si>
     <t>stego_visa.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/5DgReJt.jpg</t>
+    <t>https://i.imgur.com/eyXsPfP.jpg</t>
   </si>
   <si>
     <t>stego_visa.png</t>
   </si>
   <si>
-    <t>https://imgur.com/G1YQNWb.png</t>
+    <t>https://i.imgur.com/MdN9a4s.png</t>
   </si>
   <si>
     <t>stego_westernunion.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/4EdCxAH.jpg</t>
+    <t>https://i.imgur.com/tv4xn2a.jpg</t>
   </si>
   <si>
     <t>stego_westernunion.png</t>
   </si>
   <si>
-    <t>https://imgur.com/IVKtVvu.png</t>
+    <t>https://i.imgur.com/WFOkZbD.png</t>
   </si>
 </sst>
 </file>

--- a/utils/img.xlsx
+++ b/utils/img.xlsx
@@ -19,265 +19,265 @@
     <t>americanexpress.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/VyajFPI.jpg</t>
+    <t>https://i.imgur.com/nSrBF1k.jpg</t>
   </si>
   <si>
     <t>americanexpress.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/ywPyGbr.png</t>
+    <t>https://i.imgur.com/gdWhGbu.png</t>
   </si>
   <si>
     <t>bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/2ass03X.jpg</t>
+    <t>https://i.imgur.com/anJc11p.jpg</t>
   </si>
   <si>
     <t>bitcoin.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/IAYNXMf.png</t>
+    <t>https://i.imgur.com/3ZgG674.png</t>
   </si>
   <si>
     <t>googlepay.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/8LRLqRV.jpg</t>
+    <t>https://i.imgur.com/r5HtByu.jpg</t>
   </si>
   <si>
     <t>googlepay.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/jwgxc7n.png</t>
+    <t>https://i.imgur.com/BrsryA7.png</t>
   </si>
   <si>
     <t>ideal.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/RX8z3h4.jpg</t>
+    <t>https://i.imgur.com/JVubcSG.jpg</t>
   </si>
   <si>
     <t>ideal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/VxdMXDq.png</t>
+    <t>https://i.imgur.com/t8tf1K6.png</t>
   </si>
   <si>
     <t>logo.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/9iXJvXJ.jpg</t>
+    <t>https://i.imgur.com/xGeKfa0.jpg</t>
   </si>
   <si>
     <t>logo.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/rp3MAJJ.png</t>
+    <t>https://i.imgur.com/hXSas5X.png</t>
   </si>
   <si>
     <t>maestro.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/XROOWl0.jpg</t>
+    <t>https://i.imgur.com/6poTRTS.jpg</t>
   </si>
   <si>
     <t>maestro.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/3EHCLmx.png</t>
+    <t>https://i.imgur.com/0n8NAtk.png</t>
   </si>
   <si>
     <t>mastercard.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/BFmmUVU.jpg</t>
+    <t>https://i.imgur.com/I2GyDkr.jpg</t>
   </si>
   <si>
     <t>mastercard.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/TgfOgmD.png</t>
+    <t>https://i.imgur.com/rIrpzTR.png</t>
   </si>
   <si>
     <t>paypal.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/LAaC5On.jpg</t>
+    <t>https://i.imgur.com/lIrKAXT.jpg</t>
   </si>
   <si>
     <t>paypal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/pcvWGW3.png</t>
+    <t>https://i.imgur.com/2eQQT5J.png</t>
   </si>
   <si>
     <t>payu.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/xqnx5ex.jpg</t>
+    <t>https://i.imgur.com/Kgj6Qfr.jpg</t>
   </si>
   <si>
     <t>payu.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/UodIFfv.png</t>
+    <t>https://i.imgur.com/X7Ll2DN.png</t>
   </si>
   <si>
     <t>visa.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/35EjIaF.jpg</t>
+    <t>https://i.imgur.com/Iiss6fm.jpg</t>
   </si>
   <si>
     <t>visa.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/3eHwGjq.png</t>
+    <t>https://i.imgur.com/hVlO2is.png</t>
   </si>
   <si>
     <t>westernunion.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/lR2AXlU.jpg</t>
+    <t>https://i.imgur.com/4BNJtDW.jpg</t>
   </si>
   <si>
     <t>westernunion.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/zQsKScU.png</t>
+    <t>https://i.imgur.com/7umMgya.png</t>
   </si>
   <si>
     <t>stego_americanexpress.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/QturSVm.jpg</t>
+    <t>https://i.imgur.com/sm0yVkz.jpg</t>
   </si>
   <si>
     <t>stego_americanexpress.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/LQfun3l.png</t>
+    <t>https://i.imgur.com/Gz2zUnW.png</t>
   </si>
   <si>
     <t>stego_bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/YozVMtk.jpg</t>
+    <t>https://i.imgur.com/hCu1lcf.jpg</t>
   </si>
   <si>
     <t>stego_bitcoin.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/5jFixwY.png</t>
+    <t>https://i.imgur.com/BCWXo9q.png</t>
   </si>
   <si>
     <t>stego_googlepay.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/sEwZSp8.jpg</t>
+    <t>https://i.imgur.com/t6yEiqF.jpg</t>
   </si>
   <si>
     <t>stego_googlepay.png</t>
   </si>
   <si>
-    <t>https://imgur.com/VEBsrEW.png</t>
+    <t>https://i.imgur.com/vnsa7bQ.png</t>
   </si>
   <si>
     <t>stego_ideal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/2tCKnS9.jpg</t>
+    <t>https://i.imgur.com/bzIw8pN.jpg</t>
   </si>
   <si>
     <t>stego_ideal.png</t>
   </si>
   <si>
-    <t>https://imgur.com/ODSo3dK.png</t>
+    <t>https://i.imgur.com/SsbbNkB.png</t>
   </si>
   <si>
     <t>stego_logo.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/LoFxbO1.jpg</t>
+    <t>https://i.imgur.com/OTfVYGm.jpg</t>
   </si>
   <si>
     <t>stego_logo.png</t>
   </si>
   <si>
-    <t>https://imgur.com/tLjpcNe.png</t>
+    <t>https://i.imgur.com/UOxzSJr.png</t>
   </si>
   <si>
     <t>stego_maestro.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/E2IliNy.jpg</t>
+    <t>https://i.imgur.com/j54RTAS.jpg</t>
   </si>
   <si>
     <t>stego_maestro.png</t>
   </si>
   <si>
-    <t>https://imgur.com/fdYSEup.png</t>
+    <t>https://i.imgur.com/eqhwWY5.png</t>
   </si>
   <si>
     <t>stego_mastercard.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/O7s76GM.jpg</t>
+    <t>https://i.imgur.com/Hl8YJ43.jpg</t>
   </si>
   <si>
     <t>stego_mastercard.png</t>
   </si>
   <si>
-    <t>https://imgur.com/Skowu8W.png</t>
+    <t>https://i.imgur.com/Kjvfm1s.png</t>
   </si>
   <si>
     <t>stego_paypal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/70gQUCw.jpg</t>
+    <t>https://i.imgur.com/lo3wBp9.jpg</t>
   </si>
   <si>
     <t>stego_paypal.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/xwI5XPe.png</t>
+    <t>https://i.imgur.com/XXPydUg.png</t>
   </si>
   <si>
     <t>stego_payu.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/Yl4saqQ.jpg</t>
+    <t>https://i.imgur.com/N7y0q52.jpg</t>
   </si>
   <si>
     <t>stego_payu.png</t>
   </si>
   <si>
-    <t>https://imgur.com/Su4VLRC.png</t>
+    <t>https://i.imgur.com/EgXWqrc.png</t>
   </si>
   <si>
     <t>stego_visa.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/5DgReJt.jpg</t>
+    <t>https://i.imgur.com/B5mhDME.jpg</t>
   </si>
   <si>
     <t>stego_visa.png</t>
   </si>
   <si>
-    <t>https://imgur.com/G1YQNWb.png</t>
+    <t>https://i.imgur.com/XqXYv9j.png</t>
   </si>
   <si>
     <t>stego_westernunion.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/4EdCxAH.jpg</t>
+    <t>https://i.imgur.com/uTCStDb.jpg</t>
   </si>
   <si>
     <t>stego_westernunion.png</t>
   </si>
   <si>
-    <t>https://imgur.com/IVKtVvu.png</t>
+    <t>https://i.imgur.com/roUAWEh.png</t>
   </si>
 </sst>
 </file>
@@ -328,16 +328,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,19 +653,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="31.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +673,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -675,7 +681,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -683,7 +689,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -699,7 +705,7 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -707,7 +713,7 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -715,7 +721,7 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -723,7 +729,7 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -731,7 +737,7 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -739,7 +745,7 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -747,7 +753,7 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -755,7 +761,7 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -763,7 +769,7 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -771,7 +777,7 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -779,7 +785,7 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -787,7 +793,7 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -795,7 +801,7 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -803,7 +809,7 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -811,7 +817,7 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -819,7 +825,7 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -827,23 +833,23 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -851,7 +857,7 @@
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -859,7 +865,7 @@
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -867,7 +873,7 @@
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -875,7 +881,7 @@
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -883,7 +889,7 @@
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -891,7 +897,7 @@
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -899,7 +905,7 @@
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -907,7 +913,7 @@
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -915,7 +921,7 @@
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -923,7 +929,7 @@
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -931,7 +937,7 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -939,7 +945,7 @@
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -947,7 +953,7 @@
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -955,7 +961,7 @@
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -963,7 +969,7 @@
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -971,7 +977,7 @@
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -979,7 +985,7 @@
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -987,7 +993,7 @@
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -995,7 +1001,7 @@
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1003,7 +1009,7 @@
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1011,7 +1017,7 @@
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>87</v>
       </c>
     </row>

--- a/utils/img.xlsx
+++ b/utils/img.xlsx
@@ -157,85 +157,85 @@
     <t>stego_americanexpress.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/LQfun3l.png</t>
+    <t>https://i.imgur.com/4lSm3a9.png</t>
   </si>
   <si>
     <t>stego_bitcoin.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/YozVMtk.jpg</t>
+    <t>https://i.imgur.com/qdPqnQe.jpg</t>
   </si>
   <si>
     <t>stego_bitcoin.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/5jFixwY.png</t>
+    <t>https://i.imgur.com/lQJTSS1.png</t>
   </si>
   <si>
     <t>stego_googlepay.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/sEwZSp8.jpg</t>
+    <t>https://i.imgur.com/2PazUOR.jpg</t>
   </si>
   <si>
     <t>stego_googlepay.png</t>
   </si>
   <si>
-    <t>https://imgur.com/VEBsrEW.png</t>
+    <t>https://i.imgur.com/hz3xBB4.png</t>
   </si>
   <si>
     <t>stego_ideal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/2tCKnS9.jpg</t>
+    <t>https://i.imgur.com/PGi1Fy9.jpg</t>
   </si>
   <si>
     <t>stego_ideal.png</t>
   </si>
   <si>
-    <t>https://imgur.com/ODSo3dK.png</t>
+    <t>https://i.imgur.com/7JTI9Bb.png</t>
   </si>
   <si>
     <t>stego_logo.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/LoFxbO1.jpg</t>
+    <t>https://i.imgur.com/Ri4hsmQ.jpg</t>
   </si>
   <si>
     <t>stego_logo.png</t>
   </si>
   <si>
-    <t>https://imgur.com/tLjpcNe.png</t>
+    <t>https://i.imgur.com/MkNUmdh.png</t>
   </si>
   <si>
     <t>stego_maestro.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/E2IliNy.jpg</t>
+    <t>https://i.imgur.com/S96ZphI.jpg</t>
   </si>
   <si>
     <t>stego_maestro.png</t>
   </si>
   <si>
-    <t>https://imgur.com/fdYSEup.png</t>
+    <t>https://i.imgur.com/D5Y4pOq.png</t>
   </si>
   <si>
     <t>stego_mastercard.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/O7s76GM.jpg</t>
+    <t>https://i.imgur.com/8PUbeO5.jpg</t>
   </si>
   <si>
     <t>stego_mastercard.png</t>
   </si>
   <si>
-    <t>https://imgur.com/Skowu8W.png</t>
+    <t>https://i.imgur.com/YLusO22.png</t>
   </si>
   <si>
     <t>stego_paypal.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/70gQUCw.jpg</t>
+    <t>https://i.imgur.com/hCuCyxc.jpg</t>
   </si>
   <si>
     <t>stego_paypal.png</t>
@@ -247,37 +247,37 @@
     <t>stego_payu.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/Yl4saqQ.jpg</t>
+    <t>https://i.imgur.com/znKp20Q.jpg</t>
   </si>
   <si>
     <t>stego_payu.png</t>
   </si>
   <si>
-    <t>https://imgur.com/Su4VLRC.png</t>
+    <t>https://i.imgur.com/sRYJS6d.png</t>
   </si>
   <si>
     <t>stego_visa.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/5DgReJt.jpg</t>
+    <t>https://i.imgur.com/icyXKmP.jpg</t>
   </si>
   <si>
     <t>stego_visa.png</t>
   </si>
   <si>
-    <t>https://imgur.com/G1YQNWb.png</t>
+    <t>https://i.imgur.com/dZhvtu5.png</t>
   </si>
   <si>
     <t>stego_westernunion.jpg</t>
   </si>
   <si>
-    <t>https://imgur.com/4EdCxAH.jpg</t>
+    <t>https://i.imgur.com/Q20aPFo.jpg</t>
   </si>
   <si>
     <t>stego_westernunion.png</t>
   </si>
   <si>
-    <t>https://imgur.com/IVKtVvu.png</t>
+    <t>https://i.imgur.com/vnhW31D.png</t>
   </si>
 </sst>
 </file>
@@ -328,16 +328,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,19 +653,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="31.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +673,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -675,7 +681,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -683,7 +689,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -699,7 +705,7 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -707,7 +713,7 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -715,7 +721,7 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -723,7 +729,7 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -731,7 +737,7 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -739,7 +745,7 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -747,7 +753,7 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -755,7 +761,7 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -763,7 +769,7 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -771,7 +777,7 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -779,7 +785,7 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -787,7 +793,7 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -795,7 +801,7 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -803,7 +809,7 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -811,7 +817,7 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -819,7 +825,7 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -827,23 +833,23 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -851,7 +857,7 @@
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -859,7 +865,7 @@
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -867,7 +873,7 @@
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -875,7 +881,7 @@
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -883,7 +889,7 @@
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -891,7 +897,7 @@
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -899,7 +905,7 @@
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -907,7 +913,7 @@
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -915,7 +921,7 @@
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -923,7 +929,7 @@
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -931,7 +937,7 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -939,7 +945,7 @@
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -947,7 +953,7 @@
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -955,7 +961,7 @@
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -963,7 +969,7 @@
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -971,47 +977,47 @@
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>87</v>
       </c>
     </row>
